--- a/documents/1.项目开发计划/项目开发计划版本控制.xlsx
+++ b/documents/1.项目开发计划/项目开发计划版本控制.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>文档名称</t>
   </si>
@@ -54,11 +54,22 @@
     <t>备注</t>
   </si>
   <si>
+    <t>项目开发计划</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开发计划版本控制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.03.17</t>
+  </si>
+  <si>
     <t>2016.03.17</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>项目开发计划</t>
+    <t>邱媛</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -66,7 +77,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>项目开发计划版本控制</t>
+    <t>项目开发计划2.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱媛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目开发计划1.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、更新需求变更（增加市用户）部分的相关内容    2、补充“5.项目进度计划”内容    3、增加附件《开发进度计划说明书2.0》</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +185,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -191,6 +218,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,7 +1417,7 @@
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="18" customHeight="1"/>
@@ -1401,7 +1431,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.65" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1423,14 +1453,12 @@
     </row>
     <row r="3" spans="1:5" ht="39.65" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
@@ -1452,17 +1480,33 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="39.65" customHeight="1">

--- a/documents/1.项目开发计划/项目开发计划版本控制.xlsx
+++ b/documents/1.项目开发计划/项目开发计划版本控制.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\CM-Git\documents\1.项目开发计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="50" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+  <si>
+    <t>项目开发计划版本控制</t>
+  </si>
   <si>
     <t>文档名称</t>
   </si>
@@ -32,11 +30,16 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="SimHei"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>备注</t>
     </r>
+  </si>
+  <si>
+    <t>项目开发计划</t>
+  </si>
+  <si>
+    <t>2016.03.17</t>
   </si>
   <si>
     <t>版本名称</t>
@@ -54,95 +57,235 @@
     <t>备注</t>
   </si>
   <si>
-    <t>项目开发计划</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目开发计划版本控制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.03.17</t>
-  </si>
-  <si>
-    <t>2016.03.17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>项目开发计划1.0</t>
   </si>
   <si>
     <t>邱媛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>项目开发计划1.0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>完成项目开发计划1.0</t>
   </si>
   <si>
     <t>项目开发计划2.0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2016.04.05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>邱媛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成项目开发计划1.0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、更新需求变更（增加市用户）部分的相关内容    2、补充“5.项目进度计划”内容    3、增加附件《开发进度计划说明书2.0》</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开发计划2.1</t>
+  </si>
+  <si>
+    <t>2016.04.07</t>
+  </si>
+  <si>
+    <t>许书嘉</t>
+  </si>
+  <si>
+    <t>1.修改成员名单
+2.更新附录中文档为最新版本进度计划</t>
+  </si>
+  <si>
+    <t>1.添加成员许书嘉（旧版本未加入）
+2.解决甘特图被截断问题</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="15"/>
       <color indexed="8"/>
       <name val="SimHei"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="SimHei"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="SimHei"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="SimHei"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,11 +295,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -179,69 +508,355 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FFFEFFFF"/>
-      <rgbColor rgb="FF63B2DE"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="00FEFFFF"/>
+      <rgbColor rgb="0063B2DE"/>
       <rgbColor rgb="000000FF"/>
       <rgbColor rgb="00FFFF00"/>
       <rgbColor rgb="00FF00FF"/>
@@ -296,14 +911,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -531,7 +1138,6 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
@@ -551,7 +1157,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -587,7 +1192,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -613,7 +1217,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -639,7 +1242,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -665,7 +1267,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -691,7 +1292,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -717,7 +1317,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -743,7 +1342,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -769,7 +1367,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -795,7 +1392,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -831,8 +1427,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
@@ -852,7 +1446,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -878,7 +1471,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -904,7 +1496,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -930,7 +1521,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -956,7 +1546,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -982,7 +1571,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1008,7 +1596,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1034,7 +1621,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1060,7 +1646,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1086,7 +1671,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1119,8 +1703,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
@@ -1140,7 +1722,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1170,7 +1751,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1196,7 +1776,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1222,7 +1801,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1248,7 +1826,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1274,7 +1851,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1300,7 +1876,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1326,7 +1901,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1352,7 +1926,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1378,7 +1951,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1410,156 +1982,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.2666666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="81.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7238095238095" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.2666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="81.5428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.26953125" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.2666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="39.65" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="39.65" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="39.65" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="39.65" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+    <row r="5" ht="39.65" customHeight="1" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+    <row r="6" ht="39.65" customHeight="1" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
+    <row r="7" ht="39.65" customHeight="1" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5"/>
+    <row r="8" ht="39.65" customHeight="1" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
-    <row r="6" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6"/>
+    <row r="9" ht="39.65" customHeight="1" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+    <row r="10" ht="39.65" customHeight="1" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+    <row r="11" ht="39.65" customHeight="1" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
-    <row r="9" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+    <row r="12" ht="39.65" customHeight="1" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
